--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3368.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3368.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.22814534373493</v>
+        <v>1.966392159461975</v>
       </c>
       <c r="B1">
-        <v>2.595632486454509</v>
+        <v>3.504112005233765</v>
       </c>
       <c r="C1">
-        <v>4.958365112251198</v>
+        <v>2.3186936378479</v>
       </c>
       <c r="D1">
-        <v>2.798085921084267</v>
+        <v>2.024323463439941</v>
       </c>
       <c r="E1">
-        <v>1.173261324090152</v>
+        <v>1.86319625377655</v>
       </c>
     </row>
   </sheetData>
